--- a/p3_SFND_3D_Object_Tracking/output/estudio.xlsx
+++ b/p3_SFND_3D_Object_Tracking/output/estudio.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos_Alexandre\Docs\info_UDACITY\SENSOR_FUSION\github_projects\p3_SFND_3D_Object_Tracking\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF3586E-44FC-43B2-8CEB-32F2F20C36B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381F5B46-E487-47EA-AC77-43A78CEC545D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B4A62B45-9499-4F54-BAAC-65982A69DA9D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B4A62B45-9499-4F54-BAAC-65982A69DA9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId2"/>
-    <sheet name="Hoja7" sheetId="7" r:id="rId3"/>
-    <sheet name="Hoja6" sheetId="6" r:id="rId4"/>
-    <sheet name="time" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId3"/>
+    <sheet name="time" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Hoja3!$A$1:$D$307</definedName>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="495">
   <si>
     <t>detector+descriptor</t>
   </si>
@@ -1513,6 +1512,27 @@
   </si>
   <si>
     <t>t_media_descriptor</t>
+  </si>
+  <si>
+    <t>SHITOMAS</t>
+  </si>
+  <si>
+    <t>HARRIS</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>BRISK</t>
+  </si>
+  <si>
+    <t>ORB</t>
+  </si>
+  <si>
+    <t>AKAZE</t>
+  </si>
+  <si>
+    <t>SIFT</t>
   </si>
 </sst>
 </file>
@@ -2346,25 +2366,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>SHITOMASI + BRISK</c:v>
+                  <c:v>SHITOMAS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HARRIS + BRISK</c:v>
+                  <c:v>HARRIS</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FAST + BRISK</c:v>
+                  <c:v>FAST</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BRISK + BRISK</c:v>
+                  <c:v>BRISK</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ORB + BRISK</c:v>
+                  <c:v>ORB</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>AKAZE + BRISK</c:v>
+                  <c:v>AKAZE</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>SIFT + BRISK</c:v>
+                  <c:v>SIFT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2376,7 +2396,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17.776613055555561</c:v>
+                  <c:v>17.7766130555556</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.213709861111113</c:v>
@@ -2394,7 +2414,7 @@
                   <c:v>19.914640833333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.745375972222224</c:v>
+                  <c:v>20.3973480830692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12530,7 +12550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E1D541-BC18-4D5B-A9AD-9BEBA668BA45}">
   <dimension ref="A1:Q307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -23088,8 +23108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B4802C-2D7B-46CE-9F59-9D310C8A16F5}">
   <dimension ref="A1:G469"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A445" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -29353,11 +29373,11 @@
         <v>2455.31</v>
       </c>
       <c r="E434">
-        <f t="shared" ref="E434" si="28">SUM(D434:D505)/72</f>
-        <v>10745.375972222224</v>
+        <f>SUM(D434:D505)/36</f>
+        <v>20397.348083069155</v>
       </c>
       <c r="F434">
-        <f t="shared" ref="F434" si="29">SUM(D434:D451)/18</f>
+        <f t="shared" ref="F434" si="28">SUM(D434:D451)/18</f>
         <v>23356.447777777779</v>
       </c>
     </row>
@@ -29613,7 +29633,7 @@
         <v>2056.11</v>
       </c>
       <c r="F452">
-        <f t="shared" ref="F452" si="30">SUM(D452:D469)/18</f>
+        <f t="shared" ref="F452" si="29">SUM(D452:D469)/18</f>
         <v>19625.056111111113</v>
       </c>
     </row>
@@ -29866,19 +29886,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE816F3-11D1-42EE-BEC9-2DECD9BCD396}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781F7F0A-5F48-452C-B646-A9D4AA8DFBA0}">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -30070,12 +30077,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C08338-B613-44E9-A0DA-B6D997D94019}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -30091,10 +30098,10 @@
         <v>20.408645555555598</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>488</v>
       </c>
       <c r="E1">
-        <v>17.776613055555561</v>
+        <v>17.7766130555556</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -30105,7 +30112,7 @@
         <v>16.378063888888889</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>489</v>
       </c>
       <c r="E2">
         <v>18.213709861111113</v>
@@ -30119,7 +30126,7 @@
         <v>16.667561111111109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>490</v>
       </c>
       <c r="E3">
         <v>20.056859166666669</v>
@@ -30133,7 +30140,7 @@
         <v>17.652181666666667</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>491</v>
       </c>
       <c r="E4">
         <v>24.246587083333331</v>
@@ -30147,7 +30154,7 @@
         <v>20.098977222222224</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>492</v>
       </c>
       <c r="E5">
         <v>18.68605347222223</v>
@@ -30161,7 +30168,7 @@
         <v>17.13980888888889</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>493</v>
       </c>
       <c r="E6">
         <v>19.914640833333333</v>
@@ -30175,10 +30182,10 @@
         <v>17.353721666666665</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>494</v>
       </c>
       <c r="E7">
-        <v>10.745375972222224</v>
+        <v>20.3973480830692</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
